--- a/data/Results/answer relevance hard.xlsx
+++ b/data/Results/answer relevance hard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F01C7-E131-49C6-921F-80737B1195BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2F61D-6F5F-4FF0-B8EC-9076174F3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -170,6 +170,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L27" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C49"/>
+    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,30 +571,30 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="I2" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="6">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="L2" s="14">
         <f>AVERAGE(I2:K2)</f>
-        <v>0.6333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="M2" s="8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N2" s="8">
         <v>0.2</v>
       </c>
       <c r="O2" s="8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P2" s="12">
-        <f>AVERAGE(M2:O2)</f>
-        <v>0.53333333333333333</v>
+        <f t="shared" ref="P2:P33" si="0">AVERAGE(M2:O2)</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="Q2" s="10">
         <v>0.8</v>
@@ -633,34 +634,34 @@
         <v>0.8</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H50" si="0">AVERAGE(E3:G3)</f>
+        <f t="shared" ref="H3:H50" si="1">AVERAGE(E3:G3)</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="I3" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K3" s="6">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L50" si="1">AVERAGE(I3:K3)</f>
-        <v>0.70000000000000007</v>
+        <f t="shared" ref="L3:L50" si="2">AVERAGE(I3:K3)</f>
+        <v>0.3</v>
       </c>
       <c r="M3" s="8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N3" s="8">
         <v>0.3</v>
       </c>
       <c r="O3" s="8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P3" s="12">
-        <f>AVERAGE(M3:O3)</f>
-        <v>0.6</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="Q3" s="10">
         <v>1</v>
@@ -687,7 +688,7 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D3:D50" si="2">AVERAGE(A4:C4)</f>
+        <f t="shared" ref="D4:D50" si="3">AVERAGE(A4:C4)</f>
         <v>0.9</v>
       </c>
       <c r="E4" s="4">
@@ -704,28 +705,30 @@
         <v>0.9</v>
       </c>
       <c r="I4" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="6">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="M4" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="N4" s="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
       <c r="O4" s="8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P4" s="12">
-        <f>AVERAGE(M4:O4)</f>
-        <v>0.7</v>
+        <f t="shared" si="0"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="Q4" s="10">
         <v>0.8</v>
@@ -737,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="10">
-        <f t="shared" ref="T4:T50" si="3">AVERAGE(Q4:S4)</f>
+        <f t="shared" ref="T4:T50" si="4">AVERAGE(Q4:S4)</f>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -752,7 +755,7 @@
         <v>0.7</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="E5" s="4">
@@ -765,34 +768,34 @@
         <v>0.6</v>
       </c>
       <c r="H5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="12">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="L5" s="14">
-        <f t="shared" si="1"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="P5" s="12">
-        <f>AVERAGE(M5:O5)</f>
-        <v>0.26666666666666666</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="Q5" s="10">
         <v>0.5</v>
@@ -804,7 +807,7 @@
         <v>0.8</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56666666666666676</v>
       </c>
     </row>
@@ -819,7 +822,7 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E6" s="4">
@@ -832,34 +835,34 @@
         <v>0.7</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="6">
         <v>0.4</v>
       </c>
       <c r="J6" s="6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.23333333333333331</v>
       </c>
       <c r="M6" s="8">
         <v>0.3</v>
       </c>
       <c r="N6" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P6" s="12">
-        <f>AVERAGE(M6:O6)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="Q6" s="10">
         <v>0.6</v>
@@ -871,7 +874,7 @@
         <v>0.7</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
@@ -886,7 +889,7 @@
         <v>0.9</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E7" s="4">
@@ -899,33 +902,33 @@
         <v>0.9</v>
       </c>
       <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <f>AVERAGE(M7:O7)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="10">
@@ -938,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -965,34 +968,34 @@
         <v>0.9</v>
       </c>
       <c r="H8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="P8" s="12">
-        <f>AVERAGE(M8:O8)</f>
-        <v>0.19999999999999998</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q8" s="10">
         <v>1</v>
@@ -1004,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1031,7 +1034,7 @@
         <v>0.9</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="I9" s="6">
@@ -1044,7 +1047,7 @@
         <v>0.3</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="M9" s="8">
@@ -1054,11 +1057,11 @@
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="12">
-        <f>AVERAGE(M9:O9)</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q9" s="10">
         <v>1</v>
@@ -1070,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
@@ -1097,7 +1100,7 @@
         <v>0.7</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I10" s="6">
@@ -1107,11 +1110,11 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M10" s="8">
         <v>0.1</v>
@@ -1120,11 +1123,11 @@
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P10" s="12">
-        <f>AVERAGE(M10:O10)</f>
-        <v>0.23333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q10" s="10">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0.8</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
@@ -1151,7 +1154,7 @@
         <v>0.9</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E11" s="4">
@@ -1164,34 +1167,34 @@
         <v>0.9</v>
       </c>
       <c r="H11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="12">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L11" s="14">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="P11" s="12">
-        <f>AVERAGE(M11:O11)</f>
-        <v>0.26666666666666666</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="Q11" s="10">
         <v>1</v>
@@ -1203,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
@@ -1218,7 +1221,7 @@
         <v>0.9</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E12" s="4">
@@ -1231,21 +1234,21 @@
         <v>0.9</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="I12" s="6">
         <v>0.5</v>
       </c>
       <c r="J12" s="6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="M12" s="8">
         <v>0.4</v>
@@ -1254,11 +1257,11 @@
         <v>0.4</v>
       </c>
       <c r="O12" s="8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P12" s="12">
-        <f>AVERAGE(M12:O12)</f>
-        <v>0.46666666666666662</v>
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
       </c>
       <c r="Q12" s="10">
         <v>0.8</v>
@@ -1270,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -1285,7 +1288,7 @@
         <v>0.9</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="E13" s="4">
@@ -1298,21 +1301,21 @@
         <v>0.9</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I13" s="6">
         <v>0.2</v>
       </c>
       <c r="J13" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="6">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="1"/>
-        <v>0.43333333333333335</v>
+        <f t="shared" si="2"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="M13" s="8">
         <v>0.2</v>
@@ -1321,11 +1324,11 @@
         <v>0.3</v>
       </c>
       <c r="O13" s="8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P13" s="12">
-        <f>AVERAGE(M13:O13)</f>
-        <v>0.43333333333333335</v>
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
       </c>
       <c r="Q13" s="10">
         <v>0.7</v>
@@ -1337,7 +1340,7 @@
         <v>0.9</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
@@ -1352,7 +1355,7 @@
         <v>0.9</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E14" s="4">
@@ -1365,21 +1368,21 @@
         <v>0.9</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I14" s="6">
         <v>0.1</v>
       </c>
       <c r="J14" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M14" s="8">
         <v>0.1</v>
@@ -1388,11 +1391,11 @@
         <v>0.2</v>
       </c>
       <c r="O14" s="8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P14" s="12">
-        <f>AVERAGE(M14:O14)</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="Q14" s="10">
         <v>0.8</v>
@@ -1404,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -1419,7 +1422,7 @@
         <v>0.9</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="E15" s="4">
@@ -1432,7 +1435,7 @@
         <v>0.9</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I15" s="6">
@@ -1442,11 +1445,11 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L15" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.26666666666666666</v>
       </c>
       <c r="M15" s="8">
         <v>0.3</v>
@@ -1455,11 +1458,11 @@
         <v>0.4</v>
       </c>
       <c r="O15" s="8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P15" s="12">
-        <f>AVERAGE(M15:O15)</f>
-        <v>0.46666666666666662</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q15" s="10">
         <v>0.8</v>
@@ -1471,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -1486,7 +1489,7 @@
         <v>0.8</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E16" s="4">
@@ -1499,7 +1502,7 @@
         <v>0.8</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40000000000000008</v>
       </c>
       <c r="I16" s="6">
@@ -1509,11 +1512,11 @@
         <v>0.2</v>
       </c>
       <c r="K16" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.23333333333333331</v>
       </c>
       <c r="M16" s="8">
         <v>0.2</v>
@@ -1522,11 +1525,11 @@
         <v>0.2</v>
       </c>
       <c r="O16" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P16" s="12">
-        <f>AVERAGE(M16:O16)</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.23333333333333331</v>
       </c>
       <c r="Q16" s="10">
         <v>0.6</v>
@@ -1538,7 +1541,7 @@
         <v>0.8</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
     </row>
@@ -1553,7 +1556,7 @@
         <v>0.9</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="E17" s="4">
@@ -1566,21 +1569,21 @@
         <v>0.9</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I17" s="6">
         <v>0.5</v>
       </c>
       <c r="J17" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="1"/>
-        <v>0.56666666666666665</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="M17" s="8">
         <v>0.4</v>
@@ -1589,11 +1592,11 @@
         <v>0.4</v>
       </c>
       <c r="O17" s="8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P17" s="12">
-        <f>AVERAGE(M17:O17)</f>
-        <v>0.46666666666666662</v>
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
       </c>
       <c r="Q17" s="10">
         <v>1</v>
@@ -1605,7 +1608,7 @@
         <v>0.9</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
@@ -1620,7 +1623,7 @@
         <v>0.9</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="E18" s="4">
@@ -1633,21 +1636,21 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I18" s="6">
         <v>0.5</v>
       </c>
       <c r="J18" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.46666666666666662</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="M18" s="8">
         <v>0.4</v>
@@ -1656,11 +1659,11 @@
         <v>0.2</v>
       </c>
       <c r="O18" s="8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P18" s="12">
-        <f>AVERAGE(M18:O18)</f>
-        <v>0.40000000000000008</v>
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q18" s="10">
         <v>0.8</v>
@@ -1672,7 +1675,7 @@
         <v>0.9</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76666666666666661</v>
       </c>
     </row>
@@ -1687,7 +1690,7 @@
         <v>0.9</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E19" s="4">
@@ -1700,21 +1703,21 @@
         <v>0.9</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="I19" s="6">
         <v>0.6</v>
       </c>
       <c r="J19" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K19" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="8">
         <v>0.6</v>
@@ -1723,11 +1726,11 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P19" s="12">
-        <f>AVERAGE(M19:O19)</f>
-        <v>0.6</v>
+        <f t="shared" si="0"/>
+        <v>0.46666666666666673</v>
       </c>
       <c r="Q19" s="10">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
@@ -1754,7 +1757,7 @@
         <v>0.8</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E20" s="4">
@@ -1767,21 +1770,21 @@
         <v>0.7</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="I20" s="6">
         <v>0.5</v>
       </c>
       <c r="J20" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K20" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="M20" s="8">
         <v>0.4</v>
@@ -1790,11 +1793,11 @@
         <v>0.2</v>
       </c>
       <c r="O20" s="8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P20" s="12">
-        <f>AVERAGE(M20:O20)</f>
-        <v>0.43333333333333335</v>
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q20" s="10">
         <v>1</v>
@@ -1806,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
     </row>
@@ -1821,7 +1824,7 @@
         <v>0.7</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="E21" s="4">
@@ -1834,7 +1837,7 @@
         <v>0.7</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46666666666666662</v>
       </c>
       <c r="I21" s="6">
@@ -1847,7 +1850,7 @@
         <v>0.3</v>
       </c>
       <c r="L21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M21" s="8">
@@ -1860,7 +1863,7 @@
         <v>0.3</v>
       </c>
       <c r="P21" s="12">
-        <f>AVERAGE(M21:O21)</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="Q21" s="10">
@@ -1873,7 +1876,7 @@
         <v>0.7</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
@@ -1888,7 +1891,7 @@
         <v>0.9</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E22" s="4">
@@ -1901,34 +1904,34 @@
         <v>0.8</v>
       </c>
       <c r="H22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
         <f t="shared" si="0"/>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="P22" s="12">
-        <f>AVERAGE(M22:O22)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="10">
         <v>0.9</v>
@@ -1940,7 +1943,7 @@
         <v>0.9</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1955,7 +1958,7 @@
         <v>0.8</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E23" s="4">
@@ -1968,7 +1971,7 @@
         <v>0.8</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="I23" s="6">
@@ -1978,11 +1981,11 @@
         <v>0.1</v>
       </c>
       <c r="K23" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="M23" s="8">
         <v>0.1</v>
@@ -1991,11 +1994,11 @@
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P23" s="12">
-        <f>AVERAGE(M23:O23)</f>
-        <v>0.23333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q23" s="10">
         <v>0.8</v>
@@ -2007,7 +2010,7 @@
         <v>0.7</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63333333333333341</v>
       </c>
     </row>
@@ -2022,7 +2025,7 @@
         <v>0.9</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="E24" s="4">
@@ -2035,21 +2038,21 @@
         <v>0.8</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I24" s="6">
         <v>0.5</v>
       </c>
       <c r="J24" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K24" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.3666666666666667</v>
       </c>
       <c r="M24" s="8">
         <v>0.4</v>
@@ -2058,11 +2061,11 @@
         <v>0.2</v>
       </c>
       <c r="O24" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P24" s="12">
-        <f>AVERAGE(M24:O24)</f>
-        <v>0.40000000000000008</v>
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="Q24" s="10">
         <v>0.9</v>
@@ -2074,7 +2077,7 @@
         <v>0.8</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
@@ -2089,7 +2092,7 @@
         <v>0.9</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E25" s="4">
@@ -2102,34 +2105,34 @@
         <v>0.9</v>
       </c>
       <c r="H25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="P25" s="12">
-        <f>AVERAGE(M25:O25)</f>
-        <v>0.3</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q25" s="10">
         <v>0.9</v>
@@ -2141,7 +2144,7 @@
         <v>0.8</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76666666666666661</v>
       </c>
     </row>
@@ -2156,7 +2159,7 @@
         <v>0.9</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="E26" s="4">
@@ -2169,7 +2172,7 @@
         <v>0.9</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="I26" s="6">
@@ -2182,7 +2185,7 @@
         <v>0.5</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M26" s="8">
@@ -2192,11 +2195,11 @@
         <v>0</v>
       </c>
       <c r="O26" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P26" s="12">
-        <f>AVERAGE(M26:O26)</f>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q26" s="10">
         <v>0.9</v>
@@ -2208,7 +2211,7 @@
         <v>0.9</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -2223,7 +2226,7 @@
         <v>0.8</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="E27" s="4">
@@ -2236,7 +2239,7 @@
         <v>0.8</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I27" s="6">
@@ -2249,21 +2252,21 @@
         <v>0.4</v>
       </c>
       <c r="L27" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M27" s="8">
         <v>0.2</v>
       </c>
       <c r="N27" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P27" s="12">
-        <f>AVERAGE(M27:O27)</f>
-        <v>0.23333333333333336</v>
+        <f t="shared" si="0"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="Q27" s="10">
         <v>0.8</v>
@@ -2275,7 +2278,7 @@
         <v>0.8</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
@@ -2290,7 +2293,7 @@
         <v>0.8</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E28" s="4">
@@ -2303,33 +2306,33 @@
         <v>0.7</v>
       </c>
       <c r="H28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
         <f t="shared" si="0"/>
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-      <c r="P28" s="12">
-        <f>AVERAGE(M28:O28)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="10">
@@ -2342,7 +2345,7 @@
         <v>0.8</v>
       </c>
       <c r="T28" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
@@ -2357,7 +2360,7 @@
         <v>0.9</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E29" s="4">
@@ -2370,33 +2373,33 @@
         <v>0.9</v>
       </c>
       <c r="H29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12">
-        <f>AVERAGE(M29:O29)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="10">
@@ -2409,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2424,7 +2427,7 @@
         <v>0.9</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E30" s="4">
@@ -2437,7 +2440,7 @@
         <v>0.9</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I30" s="6">
@@ -2450,21 +2453,21 @@
         <v>0.3</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23333333333333331</v>
       </c>
       <c r="M30" s="8">
         <v>0.2</v>
       </c>
       <c r="N30" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P30" s="12">
-        <f>AVERAGE(M30:O30)</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="Q30" s="10">
         <v>1</v>
@@ -2476,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2491,7 +2494,7 @@
         <v>0.4</v>
       </c>
       <c r="D31" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="E31" s="4">
@@ -2504,34 +2507,34 @@
         <v>0.4</v>
       </c>
       <c r="H31" s="15">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="P31" s="12">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="L31" s="14">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="P31" s="12">
-        <f>AVERAGE(M31:O31)</f>
-        <v>0.10000000000000002</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q31" s="10">
         <v>0.5</v>
@@ -2543,7 +2546,7 @@
         <v>0.6</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46666666666666662</v>
       </c>
     </row>
@@ -2558,7 +2561,7 @@
         <v>0.8</v>
       </c>
       <c r="D32" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="E32" s="4">
@@ -2571,35 +2574,35 @@
         <v>0.8</v>
       </c>
       <c r="H32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="12">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="L32" s="14">
-        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="M32" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="P32" s="12">
-        <f>AVERAGE(M32:O32)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
       <c r="Q32" s="10">
         <v>0.9</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>0.9</v>
       </c>
       <c r="T32" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -2625,7 +2628,7 @@
         <v>0.8</v>
       </c>
       <c r="D33" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="E33" s="4">
@@ -2638,32 +2641,32 @@
         <v>0.8</v>
       </c>
       <c r="H33" s="15">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
         <f t="shared" si="0"/>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="14">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="12">
-        <f>AVERAGE(M33:O33)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="10">
@@ -2676,7 +2679,7 @@
         <v>0.9</v>
       </c>
       <c r="T33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -2691,7 +2694,7 @@
         <v>0.9</v>
       </c>
       <c r="D34" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E34" s="4">
@@ -2704,7 +2707,7 @@
         <v>0.9</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I34" s="6">
@@ -2717,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M34" s="8">
@@ -2730,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="12">
-        <f>AVERAGE(M34:O34)</f>
+        <f t="shared" ref="P34:P65" si="5">AVERAGE(M34:O34)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="10">
@@ -2743,7 +2746,7 @@
         <v>0.9</v>
       </c>
       <c r="T34" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -2758,7 +2761,7 @@
         <v>0.9</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="E35" s="4">
@@ -2771,7 +2774,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="I35" s="6">
@@ -2781,11 +2784,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L35" s="14">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M35" s="8">
         <v>0</v>
@@ -2794,11 +2797,11 @@
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P35" s="12">
-        <f>AVERAGE(M35:O35)</f>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q35" s="10">
         <v>0.8</v>
@@ -2810,7 +2813,7 @@
         <v>0.9</v>
       </c>
       <c r="T35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -2825,7 +2828,7 @@
         <v>0.9</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E36" s="4">
@@ -2838,7 +2841,7 @@
         <v>0.8</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="I36" s="6">
@@ -2848,11 +2851,11 @@
         <v>0</v>
       </c>
       <c r="K36" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
@@ -2861,11 +2864,11 @@
         <v>0</v>
       </c>
       <c r="O36" s="8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P36" s="12">
-        <f>AVERAGE(M36:O36)</f>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q36" s="10">
         <v>0.9</v>
@@ -2877,7 +2880,7 @@
         <v>0.9</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -2892,7 +2895,7 @@
         <v>0.9</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="E37" s="4">
@@ -2917,7 +2920,7 @@
         <v>0.2</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M37" s="8">
@@ -2927,11 +2930,11 @@
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P37" s="12">
-        <f>AVERAGE(M37:O37)</f>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q37" s="10">
         <v>0.6</v>
@@ -2943,7 +2946,7 @@
         <v>0.9</v>
       </c>
       <c r="T37" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -2958,7 +2961,7 @@
         <v>0.9</v>
       </c>
       <c r="D38" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="E38" s="4">
@@ -2971,7 +2974,7 @@
         <v>0.9</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I38" s="6">
@@ -2984,7 +2987,7 @@
         <v>0.1</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M38" s="8">
@@ -2997,7 +3000,7 @@
         <v>0.1</v>
       </c>
       <c r="P38" s="12">
-        <f>AVERAGE(M38:O38)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q38" s="10">
@@ -3010,7 +3013,7 @@
         <v>0.9</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3025,7 +3028,7 @@
         <v>0.9</v>
       </c>
       <c r="D39" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E39" s="4">
@@ -3038,7 +3041,7 @@
         <v>0.9</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I39" s="6">
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M39" s="8">
@@ -3064,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="12">
-        <f>AVERAGE(M39:O39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39" s="10">
@@ -3077,7 +3080,7 @@
         <v>0.9</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3092,7 +3095,7 @@
         <v>0.9</v>
       </c>
       <c r="D40" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E40" s="4">
@@ -3118,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M40" s="8">
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="12">
-        <f>AVERAGE(M40:O40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q40" s="10">
@@ -3144,7 +3147,7 @@
         <v>0.9</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3159,7 +3162,7 @@
         <v>0.7</v>
       </c>
       <c r="D41" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E41" s="4">
@@ -3172,7 +3175,7 @@
         <v>0.5</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I41" s="6">
@@ -3182,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M41" s="8">
         <v>0</v>
@@ -3195,11 +3198,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P41" s="12">
-        <f>AVERAGE(M41:O41)</f>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q41" s="10">
         <v>0.8</v>
@@ -3211,7 +3214,7 @@
         <v>0.7</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3239,7 +3242,7 @@
         <v>0.9</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I42" s="6">
@@ -3249,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L42" s="14">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M42" s="8">
         <v>0</v>
@@ -3262,11 +3265,11 @@
         <v>0</v>
       </c>
       <c r="O42" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P42" s="12">
-        <f>AVERAGE(M42:O42)</f>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q42" s="10">
         <v>0.9</v>
@@ -3278,7 +3281,7 @@
         <v>0.9</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3293,7 +3296,7 @@
         <v>0.9</v>
       </c>
       <c r="D43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="E43" s="4">
@@ -3306,7 +3309,7 @@
         <v>0.9</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="I43" s="6">
@@ -3319,7 +3322,7 @@
         <v>0.1</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M43" s="8">
@@ -3332,7 +3335,7 @@
         <v>0.1</v>
       </c>
       <c r="P43" s="12">
-        <f>AVERAGE(M43:O43)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q43" s="10">
@@ -3345,7 +3348,7 @@
         <v>0.9</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -3360,7 +3363,7 @@
         <v>0.9</v>
       </c>
       <c r="D44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E44" s="4">
@@ -3373,7 +3376,7 @@
         <v>0.9</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="I44" s="6">
@@ -3386,7 +3389,7 @@
         <v>0.1</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M44" s="8">
@@ -3399,7 +3402,7 @@
         <v>0.1</v>
       </c>
       <c r="P44" s="12">
-        <f>AVERAGE(M44:O44)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q44" s="10">
@@ -3412,7 +3415,7 @@
         <v>0.9</v>
       </c>
       <c r="T44" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3427,7 +3430,7 @@
         <v>0.9</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E45" s="4">
@@ -3440,7 +3443,7 @@
         <v>0.9</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="I45" s="6">
@@ -3453,7 +3456,7 @@
         <v>0.1</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M45" s="8">
@@ -3466,7 +3469,7 @@
         <v>0.1</v>
       </c>
       <c r="P45" s="12">
-        <f>AVERAGE(M45:O45)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q45" s="10">
@@ -3479,7 +3482,7 @@
         <v>0.9</v>
       </c>
       <c r="T45" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -3494,7 +3497,7 @@
         <v>0.9</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E46" s="4">
@@ -3507,7 +3510,7 @@
         <v>0.9</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="I46" s="6">
@@ -3520,7 +3523,7 @@
         <v>0.1</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M46" s="8">
@@ -3533,7 +3536,7 @@
         <v>0.1</v>
       </c>
       <c r="P46" s="12">
-        <f>AVERAGE(M46:O46)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q46" s="10">
@@ -3546,7 +3549,7 @@
         <v>0.9</v>
       </c>
       <c r="T46" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3561,7 +3564,7 @@
         <v>0.7</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E47" s="4">
@@ -3574,7 +3577,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="I47" s="6">
@@ -3587,7 +3590,7 @@
         <v>0.1</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M47" s="8">
@@ -3600,7 +3603,7 @@
         <v>0.1</v>
       </c>
       <c r="P47" s="12">
-        <f>AVERAGE(M47:O47)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q47" s="10">
@@ -3613,7 +3616,7 @@
         <v>0.8</v>
       </c>
       <c r="T47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
@@ -3628,7 +3631,7 @@
         <v>0.8</v>
       </c>
       <c r="D48" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E48" s="4">
@@ -3641,7 +3644,7 @@
         <v>0.8</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="I48" s="6">
@@ -3654,7 +3657,7 @@
         <v>0.1</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M48" s="8">
@@ -3667,7 +3670,7 @@
         <v>0.1</v>
       </c>
       <c r="P48" s="12">
-        <f>AVERAGE(M48:O48)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q48" s="10">
@@ -3680,7 +3683,7 @@
         <v>0.9</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3695,7 +3698,7 @@
         <v>0.7</v>
       </c>
       <c r="D49" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E49" s="4">
@@ -3708,7 +3711,7 @@
         <v>0.8</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="I49" s="6">
@@ -3721,7 +3724,7 @@
         <v>0.1</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M49" s="8">
@@ -3734,7 +3737,7 @@
         <v>0.1</v>
       </c>
       <c r="P49" s="12">
-        <f>AVERAGE(M49:O49)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q49" s="10">
@@ -3747,7 +3750,7 @@
         <v>0.8</v>
       </c>
       <c r="T49" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
@@ -3762,7 +3765,7 @@
         <v>0.8</v>
       </c>
       <c r="D50" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="E50" s="4">
@@ -3775,7 +3778,7 @@
         <v>0.8</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="I50" s="6">
@@ -3788,7 +3791,7 @@
         <v>0.1</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M50" s="8">
@@ -3801,7 +3804,7 @@
         <v>0.1</v>
       </c>
       <c r="P50" s="12">
-        <f>AVERAGE(M50:O50)</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q50" s="10">
@@ -3814,8 +3817,90 @@
         <v>0.9</v>
       </c>
       <c r="T50" s="10">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <f>AVERAGE(A2:A50)</f>
+        <v>0.80408163265306121</v>
+      </c>
+      <c r="B51" s="18">
+        <f t="shared" ref="B51:T51" si="6">AVERAGE(B2:B50)</f>
+        <v>0.64693877551020396</v>
+      </c>
+      <c r="C51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.84489795918367316</v>
+      </c>
+      <c r="D51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.76734693877551008</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.78979591836734642</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="G51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.82653061224489754</v>
+      </c>
+      <c r="H51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.7258503401360541</v>
+      </c>
+      <c r="I51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.1816326530612245</v>
+      </c>
+      <c r="J51" s="18">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265314E-2</v>
+      </c>
+      <c r="K51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.19591836734693863</v>
+      </c>
+      <c r="L51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="M51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.1489795918367347</v>
+      </c>
+      <c r="N51" s="18">
+        <f t="shared" si="6"/>
+        <v>7.7551020408163265E-2</v>
+      </c>
+      <c r="O51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.13469387755102025</v>
+      </c>
+      <c r="P51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.12040816326530605</v>
+      </c>
+      <c r="Q51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.84693877551020347</v>
+      </c>
+      <c r="R51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.72653061224489801</v>
+      </c>
+      <c r="S51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.88571428571428523</v>
+      </c>
+      <c r="T51" s="18">
+        <f t="shared" si="6"/>
+        <v>0.81972789115646238</v>
       </c>
     </row>
   </sheetData>
